--- a/notebooks/JK_post_in_queue.xlsx
+++ b/notebooks/JK_post_in_queue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\GitHubMLSN\sn-libraries\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A45361F-F98A-46F1-B27E-DC23915F5116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3226D335-27DD-4F1D-9477-256F9CBE47D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61185" yWindow="6675" windowWidth="31410" windowHeight="16320" xr2:uid="{E380328C-83FF-4810-AE59-88770DAECD27}"/>
+    <workbookView xWindow="62025" yWindow="7515" windowWidth="31410" windowHeight="16320" xr2:uid="{E380328C-83FF-4810-AE59-88770DAECD27}"/>
   </bookViews>
   <sheets>
     <sheet name="JK_ig_posts" sheetId="1" r:id="rId1"/>
@@ -91,9 +91,6 @@
     <t>clos ups</t>
   </si>
   <si>
-    <t>LOCATION</t>
-  </si>
-  <si>
     <t>#NurserySchoolParty #CostumeFun #KidsFashion #ParadeHighlights #TravelDiaries #WorldTraveler #DailyLife #TravelPhotography #ExploreLocal #FestiveVibes</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Hastags</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1007,13 +1007,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1032,6 +1032,9 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
+      <c r="G2">
+        <v>250765185</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
@@ -1049,6 +1052,9 @@
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G3">
+        <v>250765185</v>
+      </c>
       <c r="N3" t="s">
         <v>3</v>
       </c>
@@ -1064,10 +1070,13 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>29</v>
+      <c r="G4">
+        <v>250765185</v>
       </c>
       <c r="N4" t="s">
         <v>4</v>
@@ -1084,10 +1093,13 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>250765185</v>
       </c>
       <c r="N5" t="s">
         <v>5</v>
@@ -1104,10 +1116,13 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>250765185</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1121,10 +1136,13 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>250765185</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1135,13 +1153,16 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>250765185</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1152,13 +1173,16 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <v>250765185</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1169,13 +1193,16 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>250765185</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1186,13 +1213,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
-        <v>29</v>
+      <c r="G11">
+        <v>250765185</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1203,13 +1233,16 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
-        <v>29</v>
+      <c r="G12">
+        <v>250765185</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">

--- a/notebooks/JK_post_in_queue.xlsx
+++ b/notebooks/JK_post_in_queue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\GitHubMLSN\sn-libraries\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3226D335-27DD-4F1D-9477-256F9CBE47D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425A0512-58A0-40A8-A3A3-96C48879E18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="62025" yWindow="7515" windowWidth="31410" windowHeight="16320" xr2:uid="{E380328C-83FF-4810-AE59-88770DAECD27}"/>
   </bookViews>
@@ -124,10 +124,10 @@
     <t>C:\Users\manue\Documents\GitHubMLSN\JK Peru Photos\IMG_5868.JPG</t>
   </si>
   <si>
-    <t>Hastags</t>
-  </si>
-  <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>Hashtags</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1007,13 +1007,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">

--- a/notebooks/JK_post_in_queue.xlsx
+++ b/notebooks/JK_post_in_queue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\GitHubMLSN\sn-libraries\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425A0512-58A0-40A8-A3A3-96C48879E18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C381CDCA-94CF-4112-94C6-52E6C31E3952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62025" yWindow="7515" windowWidth="31410" windowHeight="16320" xr2:uid="{E380328C-83FF-4810-AE59-88770DAECD27}"/>
+    <workbookView xWindow="66465" yWindow="10935" windowWidth="21930" windowHeight="13170" xr2:uid="{E380328C-83FF-4810-AE59-88770DAECD27}"/>
   </bookViews>
   <sheets>
     <sheet name="JK_ig_posts" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t>my reference</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>video</t>
-  </si>
-  <si>
-    <t>album</t>
   </si>
   <si>
     <t>Caption</t>
@@ -276,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,6 +451,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -617,7 +620,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -626,6 +629,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -981,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003835AE-AA1A-4279-99C8-DB1C3F6F5900}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -993,7 +997,7 @@
     <col min="4" max="4" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1004,263 +1008,254 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G2">
         <v>250765185</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
       </c>
       <c r="G3">
         <v>250765185</v>
       </c>
-      <c r="N3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>250765185</v>
       </c>
-      <c r="N4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5">
         <v>250765185</v>
       </c>
-      <c r="N5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>250765185</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>22</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7">
         <v>250765185</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>22</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8">
         <v>250765185</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>22</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9">
         <v>250765185</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10">
         <v>250765185</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
         <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
       </c>
       <c r="G11">
         <v>250765185</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
         <v>27</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
       </c>
       <c r="G12">
         <v>250765185</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -1299,9 +1294,10 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B22" xr:uid="{14FFE9FE-F632-4DB4-B68D-3E19A39753ED}">
-      <formula1>$N$3:$N$5</formula1>
+      <formula1>$N$2:$N$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>